--- a/biology/Zoologie/Félix_Guignot/Félix_Guignot.xlsx
+++ b/biology/Zoologie/Félix_Guignot/Félix_Guignot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Guignot</t>
+          <t>Félix_Guignot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Felix Guignot est un médecin et entomologiste français, né le 16 novembre 1882 à Avignon et mort le 22 juin 1959 à Avignon.
 Après des études de médecine à l'université de Montpellier il exerce en cabinet privé à Avignon et pratique l'entomologie en amateur.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Guignot</t>
+          <t>Félix_Guignot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1932 — Les Hydrocanthares de France (Toulouse).
 1947 — Coléoptères hydrocanthares (Vol. 48 de la collection "Faune de France").
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Guignot</t>
+          <t>Félix_Guignot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Hans Fery, Anders N. Nilsson &amp; Franck Bameul (2006). The late Félix Guignot. (en) [1]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hans Fery, Anders N. Nilsson &amp; Franck Bameul (2006). The late Félix Guignot. (en) </t>
         </is>
       </c>
     </row>
